--- a/List of Logical Programs.xlsx
+++ b/List of Logical Programs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Logic Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\source\repos\LogicalPrograms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40423D-55A0-495E-B457-260D105EA054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BB8028-CBE8-4D00-8A39-0A087ED6A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -159,11 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -171,14 +170,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -205,61 +197,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -277,16 +219,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,7 +502,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,20 +510,20 @@
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -618,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>46060</v>
+        <v>46061</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -632,12 +564,12 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>46061</v>
-      </c>
-      <c r="O4" s="4"/>
+        <v>46065</v>
+      </c>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -671,7 +603,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -685,7 +617,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -696,30 +628,35 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M14" s="4"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C8">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="tomorrow">
-      <formula>FLOOR(D2,1)=TODAY()+1</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="timePeriod" dxfId="2" priority="1" timePeriod="yesterday">
+      <formula>FLOOR(D1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="yesterday">
       <formula>FLOOR(D2,1)=TODAY()-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="timePeriod" dxfId="0" priority="4" timePeriod="tomorrow">
+      <formula>FLOOR(D2,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
